--- a/biology/Écologie/Prairies_et_savanes_inondées/Prairies_et_savanes_inondées.xlsx
+++ b/biology/Écologie/Prairies_et_savanes_inondées/Prairies_et_savanes_inondées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prairies_et_savanes_inond%C3%A9es</t>
+          <t>Prairies_et_savanes_inondées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prairies et savanes inondées sont un biome terrestre du système biogéographique de la WWF, composé de vastes étendues de plaines inondées. Ces zones abritent de nombreuses plantes et animaux adaptés aux régimes hydrologiques et aux conditions du sol uniques. De grandes congrégations d'oiseaux d'eau migrateurs et sédentaires peuvent être trouvées dans ces régions. Cependant, l'importance relative de ces types d'habitats pour ces oiseaux ainsi que des taxons plus vagiles varie généralement en fonction de la disponibilité de l'eau et de la productivité annuelle et saisonnière entre les complexes de zones humides plus petites et plus grandes dans une région[3].Généralement localisés aux latitudes tropicales et subtropicales, là où les inondations responsables de la création de zones humides sont très fréquentes, ce biome se trouve sur quatre continents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prairies et savanes inondées sont un biome terrestre du système biogéographique de la WWF, composé de vastes étendues de plaines inondées. Ces zones abritent de nombreuses plantes et animaux adaptés aux régimes hydrologiques et aux conditions du sol uniques. De grandes congrégations d'oiseaux d'eau migrateurs et sédentaires peuvent être trouvées dans ces régions. Cependant, l'importance relative de ces types d'habitats pour ces oiseaux ainsi que des taxons plus vagiles varie généralement en fonction de la disponibilité de l'eau et de la productivité annuelle et saisonnière entre les complexes de zones humides plus petites et plus grandes dans une région.Généralement localisés aux latitudes tropicales et subtropicales, là où les inondations responsables de la création de zones humides sont très fréquentes, ce biome se trouve sur quatre continents.
 Ce biome se caractérise par :
 une humidité très élevée ;
 un climat chaud ;
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prairies_et_savanes_inond%C3%A9es</t>
+          <t>Prairies_et_savanes_inondées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Prairies et savanes inondées notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines savanes et prairies inondées exceptionnelles au niveau mondial se trouvent dans les Everglades, le Pantanal , la savane inondée du lac Tchad, les prairies inondées du Zambèze et le Sudd.
 Les Everglades (parc national américain situé au sud de la Floride) sont la plus grande prairie inondée alimentée par la pluie au monde sur un substrat calcaire avec une superficie de 20 000 km². Ils abritent environ 11 000 espèces de plantes à graines, 25 variétés d'orchidées, 300 espèces d'oiseaux et 150 espèces de poissons.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prairies_et_savanes_inond%C3%A9es</t>
+          <t>Prairies_et_savanes_inondées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
